--- a/tests/data/filled_templates/grondwater_template_full.xlsx
+++ b/tests/data/filled_templates/grondwater_template_full.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArneDegrave\Documents\DOV\Data\xls2xml\tests\data\filled_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArneDegrave\PycharmProjects\xls2xml\tests\data\filled_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B5D770-D8DD-4A95-8914-14FD8D9298FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B29B5A5-27D8-41FC-9A97-50D73AFE3A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codelijsten" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8560" uniqueCount="3121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8561" uniqueCount="3119">
   <si>
     <t>identificatie</t>
   </si>
@@ -9306,27 +9306,6 @@
     <t>2022-104515</t>
   </si>
   <si>
-    <t>https://www.dov.vlaanderen.be/data/put/2019-043159</t>
-  </si>
-  <si>
-    <t>2001-115</t>
-  </si>
-  <si>
-    <t>125032.00</t>
-  </si>
-  <si>
-    <t>192883.00</t>
-  </si>
-  <si>
-    <t>de Z-waarde werd in 2008 gecontroleerd op basis van het DHM (5mx5m) en werd gewijzigd, de originele Z-waarde was 4,81</t>
-  </si>
-  <si>
-    <t>4.93</t>
-  </si>
-  <si>
-    <t>20.10</t>
-  </si>
-  <si>
     <t>2019-108878</t>
   </si>
   <si>
@@ -9388,13 +9367,28 @@
   </si>
   <si>
     <t>AQUATEL</t>
+  </si>
+  <si>
+    <t>https://www.dov.vlaanderen.be/data/put/2022-104515</t>
+  </si>
+  <si>
+    <t>105096.02</t>
+  </si>
+  <si>
+    <t>191138.56</t>
+  </si>
+  <si>
+    <t>Noendries 04</t>
+  </si>
+  <si>
+    <t>Noendries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9412,6 +9406,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -9467,10 +9469,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9491,8 +9494,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -33706,13 +33711,55 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="EC2:ED2"/>
-    <mergeCell ref="EC1:ED1"/>
-    <mergeCell ref="DU2:DV2"/>
-    <mergeCell ref="DW2:DX2"/>
-    <mergeCell ref="DY2:DZ2"/>
-    <mergeCell ref="EA2:EB2"/>
-    <mergeCell ref="DU1:EB1"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM1:BP1"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="CK2:CL2"/>
+    <mergeCell ref="CM2:CN2"/>
+    <mergeCell ref="CO2:CP2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="CG2:CH2"/>
     <mergeCell ref="DM2:DN2"/>
     <mergeCell ref="DO2:DP2"/>
     <mergeCell ref="DQ2:DR2"/>
@@ -33729,55 +33776,13 @@
     <mergeCell ref="CY2:CZ2"/>
     <mergeCell ref="DA2:DB2"/>
     <mergeCell ref="CI2:CJ2"/>
-    <mergeCell ref="CK2:CL2"/>
-    <mergeCell ref="CM2:CN2"/>
-    <mergeCell ref="CO2:CP2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="AM1:BP1"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="EC2:ED2"/>
+    <mergeCell ref="EC1:ED1"/>
+    <mergeCell ref="DU2:DV2"/>
+    <mergeCell ref="DW2:DX2"/>
+    <mergeCell ref="DY2:DZ2"/>
+    <mergeCell ref="EA2:EB2"/>
+    <mergeCell ref="DU1:EB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="67">
@@ -33856,8 +33861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DF10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BM10" sqref="BM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35423,50 +35428,56 @@
       <c r="E10" t="s">
         <v>3092</v>
       </c>
-      <c r="F10" t="s">
-        <v>3093</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3094</v>
+      <c r="F10" s="8" t="s">
+        <v>3114</v>
       </c>
       <c r="I10" t="s">
-        <v>3095</v>
+        <v>3115</v>
       </c>
       <c r="J10" t="s">
-        <v>3096</v>
+        <v>3116</v>
       </c>
       <c r="K10" t="s">
         <v>192</v>
       </c>
       <c r="L10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M10" t="s">
-        <v>185</v>
-      </c>
-      <c r="V10" t="s">
-        <v>3097</v>
+        <v>944</v>
       </c>
       <c r="W10">
         <v>42028</v>
       </c>
       <c r="AK10" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="AL10" t="s">
         <v>192</v>
       </c>
       <c r="AM10" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="AN10" t="s">
-        <v>3086</v>
+        <v>944</v>
       </c>
       <c r="BK10" t="s">
         <v>898</v>
       </c>
-      <c r="BM10" t="s">
-        <v>3099</v>
+      <c r="BP10" s="2">
+        <v>43543</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>944</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>3117</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>936</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>3118</v>
       </c>
       <c r="CX10" t="s">
         <v>945</v>
@@ -35474,6 +35485,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="I3:U3"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="AA4:AI4"/>
+    <mergeCell ref="X3:AJ3"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AN5:AQ5"/>
+    <mergeCell ref="AR5:AV5"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AK3:AW3"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="BA5:BD5"/>
+    <mergeCell ref="BE5:BI5"/>
+    <mergeCell ref="BA4:BI4"/>
+    <mergeCell ref="AX3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="I2:BL2"/>
+    <mergeCell ref="BR5:BT5"/>
+    <mergeCell ref="BQ4:BT4"/>
+    <mergeCell ref="BU4:BY4"/>
+    <mergeCell ref="BQ3:BY3"/>
+    <mergeCell ref="BP2:BZ2"/>
     <mergeCell ref="DB3:DC3"/>
     <mergeCell ref="CY2:DF2"/>
     <mergeCell ref="CA2:CM2"/>
@@ -35486,34 +35525,6 @@
     <mergeCell ref="CH3:CI3"/>
     <mergeCell ref="CJ3:CK3"/>
     <mergeCell ref="CL3:CM3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="I2:BL2"/>
-    <mergeCell ref="BR5:BT5"/>
-    <mergeCell ref="BQ4:BT4"/>
-    <mergeCell ref="BU4:BY4"/>
-    <mergeCell ref="BQ3:BY3"/>
-    <mergeCell ref="BP2:BZ2"/>
-    <mergeCell ref="BB6:BD6"/>
-    <mergeCell ref="BA5:BD5"/>
-    <mergeCell ref="BE5:BI5"/>
-    <mergeCell ref="BA4:BI4"/>
-    <mergeCell ref="AX3:BJ3"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AN5:AQ5"/>
-    <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="AN4:AV4"/>
-    <mergeCell ref="AK3:AW3"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="AA4:AI4"/>
-    <mergeCell ref="X3:AJ3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="I3:U3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C1000001 CZ9:CZ1000001 CV9:CV1000001 BZ9:BZ1000001 BP9:BP1000001 BN9:BN1000001 BJ9:BJ1000001 AW9:AW1000001 AJ9:AJ1000001" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -35540,6 +35551,7 @@
     <hyperlink ref="CO8" location="'Codelijsten'!$AG$2" display="naam-naamtype" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
     <hyperlink ref="CX8" location="'Codelijsten'!$AI$2" display="status" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
     <hyperlink ref="DE8" location="'Codelijsten'!$AK$2" display="bijlage-bijlage_type" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{1D8C758C-E6B1-4068-803D-F0004AB65491}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -36336,22 +36348,22 @@
         <v>1362</v>
       </c>
       <c r="K6" t="s">
-        <v>3102</v>
+        <v>3095</v>
       </c>
       <c r="M6" t="s">
-        <v>3100</v>
+        <v>3093</v>
       </c>
       <c r="N6" t="s">
-        <v>3101</v>
+        <v>3094</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>3103</v>
+        <v>3096</v>
       </c>
       <c r="AB6" t="s">
-        <v>3104</v>
+        <v>3097</v>
       </c>
       <c r="AC6" t="s">
         <v>1566</v>
@@ -36362,10 +36374,10 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="AA7" t="s">
-        <v>3104</v>
+        <v>3097</v>
       </c>
       <c r="AB7" t="s">
-        <v>3105</v>
+        <v>3098</v>
       </c>
       <c r="AC7" t="s">
         <v>1563</v>
@@ -36373,6 +36385,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="R2:Z2"/>
+    <mergeCell ref="AA3:AF3"/>
+    <mergeCell ref="AA2:AF2"/>
     <mergeCell ref="AX3:AY3"/>
     <mergeCell ref="AU2:BB2"/>
     <mergeCell ref="AG2:AH2"/>
@@ -36380,12 +36398,6 @@
     <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="AL2:AR2"/>
     <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="AA3:AF3"/>
-    <mergeCell ref="AA2:AF2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001 AV6:AV1000001 AR6:AR1000001 O6:O1000001" xr:uid="{00000000-0002-0000-0200-000002000000}">
@@ -36513,7 +36525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:GI18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -39134,7 +39146,7 @@
         <v>44628</v>
       </c>
       <c r="E10" t="s">
-        <v>3106</v>
+        <v>3099</v>
       </c>
       <c r="F10" t="s">
         <v>1816</v>
@@ -39146,10 +39158,10 @@
         <v>1826</v>
       </c>
       <c r="R10" t="s">
-        <v>3107</v>
+        <v>3100</v>
       </c>
       <c r="S10" t="s">
-        <v>3110</v>
+        <v>3103</v>
       </c>
       <c r="T10" t="s">
         <v>212</v>
@@ -39173,10 +39185,10 @@
         <v>1826</v>
       </c>
       <c r="BE10" t="s">
-        <v>3109</v>
+        <v>3102</v>
       </c>
       <c r="BF10" t="s">
-        <v>3108</v>
+        <v>3101</v>
       </c>
       <c r="BG10" t="s">
         <v>212</v>
@@ -39199,7 +39211,7 @@
         <v>44874</v>
       </c>
       <c r="E11" t="s">
-        <v>3106</v>
+        <v>3099</v>
       </c>
       <c r="F11" t="s">
         <v>1816</v>
@@ -39211,10 +39223,10 @@
         <v>1826</v>
       </c>
       <c r="R11" t="s">
-        <v>3111</v>
+        <v>3104</v>
       </c>
       <c r="S11" t="s">
-        <v>3113</v>
+        <v>3106</v>
       </c>
       <c r="T11" t="s">
         <v>212</v>
@@ -39223,7 +39235,7 @@
         <v>185</v>
       </c>
       <c r="V11" t="s">
-        <v>3115</v>
+        <v>3108</v>
       </c>
       <c r="AA11" t="s">
         <v>1851</v>
@@ -39237,7 +39249,7 @@
         <v>44942</v>
       </c>
       <c r="E12" t="s">
-        <v>3106</v>
+        <v>3099</v>
       </c>
       <c r="F12" t="s">
         <v>1816</v>
@@ -39249,10 +39261,10 @@
         <v>1826</v>
       </c>
       <c r="R12" t="s">
-        <v>3112</v>
+        <v>3105</v>
       </c>
       <c r="S12" t="s">
-        <v>3114</v>
+        <v>3107</v>
       </c>
       <c r="T12" t="s">
         <v>212</v>
@@ -39267,10 +39279,10 @@
         <v>192</v>
       </c>
       <c r="AE12" t="s">
-        <v>3116</v>
+        <v>3109</v>
       </c>
       <c r="AF12" t="s">
-        <v>3117</v>
+        <v>3110</v>
       </c>
       <c r="AK12" s="2">
         <v>45393</v>
@@ -39281,7 +39293,7 @@
         <v>44964</v>
       </c>
       <c r="E13" t="s">
-        <v>3106</v>
+        <v>3099</v>
       </c>
       <c r="F13" t="s">
         <v>1816</v>
@@ -39292,7 +39304,7 @@
         <v>45100</v>
       </c>
       <c r="E14" t="s">
-        <v>3106</v>
+        <v>3099</v>
       </c>
       <c r="F14" t="s">
         <v>1816</v>
@@ -39303,7 +39315,7 @@
         <v>45132</v>
       </c>
       <c r="E15" t="s">
-        <v>3106</v>
+        <v>3099</v>
       </c>
       <c r="F15" t="s">
         <v>1816</v>
@@ -39314,7 +39326,7 @@
         <v>45177</v>
       </c>
       <c r="E16" t="s">
-        <v>3106</v>
+        <v>3099</v>
       </c>
       <c r="F16" t="s">
         <v>1816</v>
@@ -39325,7 +39337,7 @@
         <v>45205</v>
       </c>
       <c r="E17" t="s">
-        <v>3106</v>
+        <v>3099</v>
       </c>
       <c r="F17" t="s">
         <v>1816</v>
@@ -39336,7 +39348,7 @@
         <v>45236</v>
       </c>
       <c r="E18" t="s">
-        <v>3106</v>
+        <v>3099</v>
       </c>
       <c r="F18" t="s">
         <v>1816</v>
@@ -39344,45 +39356,11 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="GD2:GI2"/>
-    <mergeCell ref="FT5:FX5"/>
-    <mergeCell ref="FK4:FX4"/>
-    <mergeCell ref="FK3:FZ3"/>
-    <mergeCell ref="GA3:GB3"/>
-    <mergeCell ref="CC2:GC2"/>
-    <mergeCell ref="FD4:FE4"/>
-    <mergeCell ref="EB3:FG3"/>
-    <mergeCell ref="FL7:FN7"/>
-    <mergeCell ref="FK6:FN6"/>
-    <mergeCell ref="FO6:FS6"/>
-    <mergeCell ref="FK5:FS5"/>
-    <mergeCell ref="EC4:ED4"/>
-    <mergeCell ref="EN4:EQ4"/>
-    <mergeCell ref="ES5:ET5"/>
-    <mergeCell ref="ER4:EU4"/>
-    <mergeCell ref="EW5:FA5"/>
-    <mergeCell ref="EV4:FB4"/>
-    <mergeCell ref="DN4:DR4"/>
-    <mergeCell ref="DM3:DS3"/>
-    <mergeCell ref="DU4:DV4"/>
-    <mergeCell ref="DW4:DX4"/>
-    <mergeCell ref="DT3:EA3"/>
-    <mergeCell ref="DA6:DE6"/>
-    <mergeCell ref="CW5:DE5"/>
-    <mergeCell ref="DF5:DJ5"/>
-    <mergeCell ref="CW4:DJ4"/>
-    <mergeCell ref="CW3:DL3"/>
-    <mergeCell ref="CP5:CT5"/>
-    <mergeCell ref="CG4:CT4"/>
-    <mergeCell ref="CG3:CV3"/>
-    <mergeCell ref="CX7:CZ7"/>
-    <mergeCell ref="CW6:CZ6"/>
-    <mergeCell ref="BY2:CB2"/>
-    <mergeCell ref="CD3:CE3"/>
-    <mergeCell ref="CH7:CJ7"/>
-    <mergeCell ref="CG6:CJ6"/>
-    <mergeCell ref="CK6:CO6"/>
-    <mergeCell ref="CG5:CO5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="V4:Z4"/>
     <mergeCell ref="BI4:BM4"/>
     <mergeCell ref="BS5:BW5"/>
     <mergeCell ref="BR4:BX4"/>
@@ -39395,11 +39373,45 @@
     <mergeCell ref="AV5:AZ5"/>
     <mergeCell ref="AU4:BA4"/>
     <mergeCell ref="AL3:BA3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="D2:N2"/>
-    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="CX7:CZ7"/>
+    <mergeCell ref="CW6:CZ6"/>
+    <mergeCell ref="BY2:CB2"/>
+    <mergeCell ref="CD3:CE3"/>
+    <mergeCell ref="CH7:CJ7"/>
+    <mergeCell ref="CG6:CJ6"/>
+    <mergeCell ref="CK6:CO6"/>
+    <mergeCell ref="CG5:CO5"/>
+    <mergeCell ref="DA6:DE6"/>
+    <mergeCell ref="CW5:DE5"/>
+    <mergeCell ref="DF5:DJ5"/>
+    <mergeCell ref="CW4:DJ4"/>
+    <mergeCell ref="CW3:DL3"/>
+    <mergeCell ref="FL7:FN7"/>
+    <mergeCell ref="FK6:FN6"/>
+    <mergeCell ref="FO6:FS6"/>
+    <mergeCell ref="FK5:FS5"/>
+    <mergeCell ref="EC4:ED4"/>
+    <mergeCell ref="EN4:EQ4"/>
+    <mergeCell ref="ES5:ET5"/>
+    <mergeCell ref="ER4:EU4"/>
+    <mergeCell ref="EW5:FA5"/>
+    <mergeCell ref="EV4:FB4"/>
+    <mergeCell ref="GD2:GI2"/>
+    <mergeCell ref="FT5:FX5"/>
+    <mergeCell ref="FK4:FX4"/>
+    <mergeCell ref="FK3:FZ3"/>
+    <mergeCell ref="GA3:GB3"/>
+    <mergeCell ref="CC2:GC2"/>
+    <mergeCell ref="FD4:FE4"/>
+    <mergeCell ref="EB3:FG3"/>
+    <mergeCell ref="DN4:DR4"/>
+    <mergeCell ref="DM3:DS3"/>
+    <mergeCell ref="DU4:DV4"/>
+    <mergeCell ref="DW4:DX4"/>
+    <mergeCell ref="DT3:EA3"/>
+    <mergeCell ref="CP5:CT5"/>
+    <mergeCell ref="CG4:CT4"/>
+    <mergeCell ref="CG3:CV3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -40323,6 +40335,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="W3:Z3"/>
     <mergeCell ref="AW3:AX3"/>
     <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="AV2:BC2"/>
@@ -40332,17 +40355,6 @@
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW7:AW1000001 AU7:AU1000001 AF7:AG1000001" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -40491,7 +40503,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3118</v>
+        <v>3111</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -40500,10 +40512,10 @@
         <v>1062</v>
       </c>
       <c r="D5" t="s">
-        <v>3119</v>
+        <v>3112</v>
       </c>
       <c r="E5" t="s">
-        <v>3120</v>
+        <v>3113</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/filled_templates/grondwater_template_full.xlsx
+++ b/tests/data/filled_templates/grondwater_template_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RubenVijverman\PycharmProjects\xls2xml\tests\data\filled_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CC0BD5-D560-4AF3-8396-14C76CFA8958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D24E768-38E0-455D-AB14-7A0EE0CFC610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codelijsten" sheetId="1" r:id="rId1"/>
@@ -10472,7 +10472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ED918"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2:AV2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -35678,8 +35680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BB7"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35753,13 +35755,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1016</v>
@@ -35994,13 +35996,13 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="F3" s="4" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>1017</v>
@@ -36181,7 +36183,7 @@
         <v>1013</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>1016</v>
@@ -36339,7 +36341,7 @@
         <v>43543</v>
       </c>
       <c r="F6" t="s">
-        <v>1095</v>
+        <v>1365</v>
       </c>
       <c r="G6" t="s">
         <v>1362</v>
@@ -36396,6 +36398,7 @@
     <mergeCell ref="AL2:AR2"/>
     <mergeCell ref="AV3:AW3"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1000001 AV6:AV1000001 AR6:AR1000001 O6:O1000001" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>1</formula1>
@@ -36438,7 +36441,7 @@
           <x14:formula1>
             <xm:f>Codelijsten!$AQ$4:$AQ$137</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F1000001</xm:sqref>
+          <xm:sqref>F7:F1000001</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
@@ -36450,7 +36453,7 @@
           <x14:formula1>
             <xm:f>Codelijsten!$AU$4:$AU$137</xm:f>
           </x14:formula1>
-          <xm:sqref>H6:H1000001</xm:sqref>
+          <xm:sqref>H6:H1000001 F6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000006000000}">
           <x14:formula1>
@@ -36522,7 +36525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:GI18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
+    <sheetView topLeftCell="BO1" workbookViewId="0">
       <selection activeCell="BO18" sqref="BO18"/>
     </sheetView>
   </sheetViews>
